--- a/corrE7X.xlsx
+++ b/corrE7X.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Insurance RM_Developments\Analisi Dir. Inv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE856F61-0CBE-4E80-9DA0-AA9A19F957BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FA58E8-28E0-4E40-9827-06B5CEDEB457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>1. E7X</t>
   </si>
@@ -58,6 +58,27 @@
   </si>
   <si>
     <t>8. EI2</t>
+  </si>
+  <si>
+    <t>EGQ</t>
+  </si>
+  <si>
+    <t>E7U</t>
+  </si>
+  <si>
+    <t>EGZKC</t>
+  </si>
+  <si>
+    <t>EGZLK</t>
+  </si>
+  <si>
+    <t>E8J</t>
+  </si>
+  <si>
+    <t>EYP</t>
+  </si>
+  <si>
+    <t>EI2</t>
   </si>
 </sst>
 </file>
@@ -271,7 +292,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2. EGQ</c:v>
+                  <c:v>EGQ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5008,7 +5029,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3. E7U</c:v>
+                  <c:v>E7U</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9745,7 +9766,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4. EGZKC</c:v>
+                  <c:v>EGZKC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -14482,7 +14503,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5. EGZLK</c:v>
+                  <c:v>EGZLK</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -19219,7 +19240,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6. E8J</c:v>
+                  <c:v>E8J</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -23956,7 +23977,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7. EYP</c:v>
+                  <c:v>EYP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -28693,7 +28714,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8. EI2</c:v>
+                  <c:v>EI2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -31070,24 +31091,6 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="781"/>
-                <c:pt idx="616">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="617">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="618">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="619">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="620">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="621">
-                  <c:v>0.97</c:v>
-                </c:pt>
                 <c:pt idx="622">
                   <c:v>0.97</c:v>
                 </c:pt>
@@ -55356,7 +55359,7 @@
   <dimension ref="A1:H782"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB627" sqref="AB627"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -55368,25 +55371,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -67350,7 +67353,7 @@
         <v>0.96</v>
       </c>
       <c r="C500" s="6">
-        <f t="shared" ref="C500:H501" si="0">+C499</f>
+        <f t="shared" ref="C500:G501" si="0">+C499</f>
         <v>0.98</v>
       </c>
       <c r="D500" s="6">
@@ -70206,9 +70209,7 @@
       <c r="G618" s="9">
         <v>0.85</v>
       </c>
-      <c r="H618" s="9">
-        <v>0.96</v>
-      </c>
+      <c r="H618" s="9"/>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A619" s="5">
@@ -70232,9 +70233,7 @@
       <c r="G619" s="9">
         <v>0.84</v>
       </c>
-      <c r="H619" s="9">
-        <v>0.96</v>
-      </c>
+      <c r="H619" s="9"/>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A620" s="5">
@@ -70258,9 +70257,7 @@
       <c r="G620" s="9">
         <v>0.85</v>
       </c>
-      <c r="H620" s="9">
-        <v>0.96</v>
-      </c>
+      <c r="H620" s="9"/>
     </row>
     <row r="621" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A621" s="5">
@@ -70284,9 +70281,7 @@
       <c r="G621" s="9">
         <v>0.83</v>
       </c>
-      <c r="H621" s="9">
-        <v>0.96</v>
-      </c>
+      <c r="H621" s="9"/>
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A622" s="5">
@@ -70310,9 +70305,7 @@
       <c r="G622" s="9">
         <v>0.86</v>
       </c>
-      <c r="H622" s="9">
-        <v>0.97</v>
-      </c>
+      <c r="H622" s="9"/>
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A623" s="5">
@@ -70336,9 +70329,7 @@
       <c r="G623" s="9">
         <v>0.86</v>
       </c>
-      <c r="H623" s="9">
-        <v>0.97</v>
-      </c>
+      <c r="H623" s="9"/>
     </row>
     <row r="624" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A624" s="5">
